--- a/Excel Music.xlsx
+++ b/Excel Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="25360" windowHeight="14180" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="25360" windowHeight="14180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="242">
   <si>
     <t>amp</t>
   </si>
@@ -188,9 +188,6 @@
     <t>We playback notes by defining "turtles" to walk around the grid. Every note that a turtle passes through, it will play. 🐢</t>
   </si>
   <si>
-    <t>turtle(b15, r m3)</t>
-  </si>
-  <si>
     <t>Press the play button in the window on the side to hear</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>Putting "s" in a cell will sustain (increase the length of) the note that came before it</t>
   </si>
   <si>
-    <t>!turtle(b40, r r m1 l m1 l m1 e m1 s m2 w m2)</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -759,6 +753,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>turtle(b40, r r m1 l m1 l m1 e m1 s m2 w m2)</t>
+  </si>
+  <si>
+    <t>!turtle(b15, r m3)</t>
   </si>
 </sst>
 </file>
@@ -2757,11 +2757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125225080"/>
-        <c:axId val="2125230872"/>
+        <c:axId val="2143991528"/>
+        <c:axId val="2145710312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125225080"/>
+        <c:axId val="2143991528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16.5"/>
@@ -2787,14 +2787,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125230872"/>
+        <c:crossAx val="2145710312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4.0"/>
         <c:minorUnit val="0.8"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125230872"/>
+        <c:axId val="2145710312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="74.0"/>
@@ -2806,7 +2806,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125225080"/>
+        <c:crossAx val="2143991528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{096912B7-650D-41C4-964A-C5EA72AD94A9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096912B7-650D-41C4-964A-C5EA72AD94A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4139,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4150,7 +4150,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <f>INDEX($B$3:$B$19,MATCH(LEFT(A1,LEN(A1)-1),$A$3:$A$19,0))+12*RIGHT(A1)</f>
@@ -4180,7 +4180,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>12</v>
@@ -4204,68 +4204,68 @@
         <v>6</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4273,43 +4273,43 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -4327,7 +4327,7 @@
         <v>48</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:T6" si="0">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(F2,LEN(F2)-1),$A$3:$A$19,0))+12*RIGHT(F2),)</f>
+        <f t="shared" ref="F6:S6" si="0">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(F2,LEN(F2)-1),$A$3:$A$19,0))+12*RIGHT(F2),)</f>
         <v>48</v>
       </c>
       <c r="G6">
@@ -4381,13 +4381,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:T7" si="1">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(E3,LEN(E3)-1),$A$3:$A$19,0))+12*RIGHT(E3),)</f>
+        <f t="shared" ref="E7:S7" si="1">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(E3,LEN(E3)-1),$A$3:$A$19,0))+12*RIGHT(E3),)</f>
         <v>36</v>
       </c>
       <c r="G7">
@@ -4429,13 +4429,13 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="E8:T8" si="2">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(G4,LEN(G4)-1),$A$3:$A$19,0))+12*RIGHT(G4),)</f>
+        <f t="shared" ref="G8:S8" si="2">IFERROR(INDEX($B$3:$B$19,MATCH(LEFT(G4,LEN(G4)-1),$A$3:$A$19,0))+12*RIGHT(G4),)</f>
         <v>40</v>
       </c>
       <c r="I8">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -5092,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5317,14 +5317,14 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5414,7 +5414,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5483,7 +5483,7 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5499,7 +5499,7 @@
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5515,7 +5515,7 @@
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5531,7 +5531,7 @@
     <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5547,7 +5547,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5563,7 +5563,7 @@
     <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5579,7 +5579,7 @@
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5605,7 +5605,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5616,11 +5616,11 @@
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5644,7 +5644,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -5654,7 +5654,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5748,7 +5748,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>12</v>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5828,13 +5828,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5872,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5922,7 +5922,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L49" s="1"/>
     </row>
@@ -5944,13 +5944,13 @@
         <v>11</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5978,16 +5978,16 @@
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>8</v>
@@ -5996,7 +5996,7 @@
         <v>11</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6026,7 +6026,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -6036,12 +6036,12 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6077,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
@@ -6089,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>16</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6126,13 +6126,13 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6149,19 +6149,19 @@
     <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="2" t="s">
@@ -6175,16 +6175,16 @@
     <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>15</v>
@@ -6199,23 +6199,23 @@
     <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6251,12 +6251,12 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6273,34 +6273,34 @@
     <row r="67" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L67" s="1"/>
     </row>
@@ -6321,21 +6321,21 @@
     <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -6345,19 +6345,19 @@
     <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -6369,21 +6369,21 @@
     <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -6393,17 +6393,17 @@
     <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6437,7 +6437,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6488,7 +6488,7 @@
         <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6695,7 +6695,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6748,7 +6748,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6811,10 +6811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW12"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6830,7 +6830,7 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7082,169 +7082,169 @@
     </row>
     <row r="7" spans="1:49">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -7256,33 +7256,33 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7290,45 +7290,45 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7336,40 +7336,45 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7409,7 +7414,7 @@
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7462,7 +7467,7 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7515,7 +7520,7 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7590,7 +7595,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -7614,58 +7619,58 @@
         <v>6</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -7673,38 +7678,38 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -7750,7 +7755,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
@@ -7774,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -7783,49 +7788,49 @@
         <v>8</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -7834,59 +7839,59 @@
         <v>6</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -7907,15 +7912,15 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -7936,10 +7941,10 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -8001,7 +8006,7 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8038,7 +8043,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8111,10 +8116,10 @@
     <row r="4" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -8156,46 +8161,46 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="M5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -8220,10 +8225,10 @@
     <row r="7" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -8243,19 +8248,19 @@
     <row r="8" spans="1:33">
       <c r="A8" s="1"/>
       <c r="B8" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -8271,100 +8276,100 @@
         <v>11</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -8373,49 +8378,49 @@
         <v>13</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -8459,10 +8464,10 @@
     <row r="14" spans="1:33">
       <c r="A14" s="1"/>
       <c r="B14" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -8482,52 +8487,52 @@
     <row r="15" spans="1:33">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="K15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8568,7 +8573,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8589,7 +8594,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8630,10 +8635,10 @@
     <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -8653,52 +8658,52 @@
     <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -8723,10 +8728,10 @@
     <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -8746,19 +8751,19 @@
     <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -8771,52 +8776,52 @@
     <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -8825,100 +8830,100 @@
         <v>13</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -8927,13 +8932,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8943,25 +8948,25 @@
         <v>20</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -8986,10 +8991,10 @@
     <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9009,52 +9014,52 @@
     <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="O15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -9082,37 +9087,37 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M1" s="4"/>
     </row>
@@ -9133,7 +9138,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -9150,7 +9155,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -9279,59 +9284,59 @@
     <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="36"/>
       <c r="R2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T2" s="36"/>
       <c r="U2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V2" s="36"/>
       <c r="W2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y2" s="37"/>
     </row>
@@ -9364,7 +9369,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9393,7 +9398,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9678,7 +9683,7 @@
   <sheetData>
     <row r="1" spans="1:142">
       <c r="A1" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9969,11 +9974,11 @@
     <row r="3" spans="1:142" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10117,11 +10122,11 @@
     <row r="4" spans="1:142">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -10265,7 +10270,7 @@
     <row r="5" spans="1:142">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -10411,7 +10416,7 @@
     <row r="6" spans="1:142">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -10807,19 +10812,19 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
@@ -10908,13 +10913,13 @@
       <c r="DA8" s="11"/>
       <c r="DB8" s="11"/>
       <c r="DC8" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="DD8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE8" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF8" s="11"/>
       <c r="DG8" s="11"/>
@@ -10941,13 +10946,13 @@
       <c r="EB8" s="11"/>
       <c r="EC8" s="11"/>
       <c r="ED8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="EE8" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="EF8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="EG8" s="11"/>
       <c r="EH8" s="11"/>
@@ -10968,22 +10973,22 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>20</v>
@@ -11008,70 +11013,70 @@
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AJ9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR9" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="AP9" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR9" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="AS9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT9" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AU9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AV9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AX9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AY9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ9" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BA9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BB9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BD9" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BE9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BG9" s="15"/>
       <c r="BH9" s="15"/>
@@ -11080,19 +11085,19 @@
         <v>20</v>
       </c>
       <c r="BK9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BL9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="BM9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BN9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="BO9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BP9" s="15"/>
       <c r="BQ9" s="15"/>
@@ -11101,31 +11106,31 @@
       <c r="BT9" s="15"/>
       <c r="BU9" s="15"/>
       <c r="BV9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BW9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX9" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BY9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BZ9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="CB9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="CC9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CD9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CE9" s="15"/>
       <c r="CF9" s="15"/>
@@ -11134,16 +11139,16 @@
         <v>20</v>
       </c>
       <c r="CI9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CJ9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="CK9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="CL9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CM9" s="16" t="s">
         <v>20</v>
@@ -11152,13 +11157,13 @@
       <c r="CO9" s="15"/>
       <c r="CP9" s="15"/>
       <c r="CQ9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="CR9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CS9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CT9" s="15"/>
       <c r="CU9" s="15"/>
@@ -11173,25 +11178,25 @@
         <v>20</v>
       </c>
       <c r="DD9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="DG9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH9" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="DI9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="DJ9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DK9" s="16" t="s">
         <v>20</v>
@@ -11212,22 +11217,22 @@
       <c r="DY9" s="15"/>
       <c r="DZ9" s="15"/>
       <c r="EA9" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="EB9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EC9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="ED9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="EE9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EF9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EG9" s="16" t="s">
         <v>20</v>
@@ -11244,19 +11249,19 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>16</v>
@@ -11265,19 +11270,19 @@
         <v>20</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>16</v>
@@ -11302,106 +11307,106 @@
         <v>16</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AC10" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="AD10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="AG10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AI10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="AJ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AL10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AM10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AO10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AQ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AR10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="AS10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AU10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AX10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="AY10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="BB10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BD10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BE10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BG10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="BH10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI10" s="16" t="s">
         <v>16</v>
@@ -11410,17 +11415,17 @@
         <v>16</v>
       </c>
       <c r="BK10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BL10" s="15"/>
       <c r="BM10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="BN10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BO10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BP10" s="15"/>
       <c r="BQ10" s="15"/>
@@ -11432,34 +11437,34 @@
         <v>16</v>
       </c>
       <c r="BW10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BY10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CC10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CD10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CE10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="CF10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG10" s="16" t="s">
         <v>16</v>
@@ -11468,25 +11473,25 @@
         <v>16</v>
       </c>
       <c r="CI10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CJ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CK10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CL10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CM10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CN10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="CO10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CP10" s="16" t="s">
         <v>20</v>
@@ -11495,64 +11500,64 @@
         <v>16</v>
       </c>
       <c r="CR10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CS10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CT10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="CU10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CV10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="CW10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CX10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CY10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CZ10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="DA10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DB10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DD10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="DG10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DI10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="DJ10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DK10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DL10" s="15"/>
       <c r="DM10" s="15"/>
@@ -11564,19 +11569,19 @@
       <c r="DS10" s="15"/>
       <c r="DT10" s="15"/>
       <c r="DU10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DV10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="DW10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="DX10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="DY10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DZ10" s="16" t="s">
         <v>16</v>
@@ -11585,19 +11590,19 @@
         <v>20</v>
       </c>
       <c r="EB10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EC10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="ED10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="EE10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EF10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EG10" s="16" t="s">
         <v>16</v>
@@ -11627,10 +11632,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>13</v>
@@ -11639,152 +11644,152 @@
         <v>13</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="U11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="20"/>
       <c r="Z11" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="AH11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AL11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AM11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AO11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="AP11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AQ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AR11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AS11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AU11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AX11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AY11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BB11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BD11" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BE11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BG11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BH11" s="19" t="s">
         <v>10</v>
@@ -11796,122 +11801,122 @@
         <v>13</v>
       </c>
       <c r="BK11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BL11" s="20"/>
       <c r="BM11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="BN11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BO11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BP11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="BQ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BR11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BT11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BU11" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BV11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="BW11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BY11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CC11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CD11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CE11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CF11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CH11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="CI11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CJ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CK11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CL11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CM11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CN11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CO11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CP11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CQ11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CR11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CS11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CT11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CU11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CV11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CW11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="CX11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CY11" s="19" t="s">
         <v>13</v>
@@ -11920,55 +11925,55 @@
         <v>13</v>
       </c>
       <c r="DA11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DB11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="DD11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="DG11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DI11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="DJ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DK11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DL11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="DM11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DN11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DO11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DP11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DQ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DR11" s="19" t="s">
         <v>10</v>
@@ -11983,10 +11988,10 @@
         <v>13</v>
       </c>
       <c r="DV11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DW11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DX11" s="19" t="s">
         <v>13</v>
@@ -11995,43 +12000,43 @@
         <v>13</v>
       </c>
       <c r="DZ11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EA11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="EB11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EC11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="ED11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="EE11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EF11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EG11" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="EH11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EI11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EJ11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="EK11" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EL11" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:142">
@@ -12181,49 +12186,49 @@
     <row r="13" spans="1:142">
       <c r="A13" s="1"/>
       <c r="B13" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -12241,145 +12246,145 @@
         <v>13</v>
       </c>
       <c r="X13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AA13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="AF13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AO13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AQ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AS13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AU13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AY13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="BB13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BD13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BE13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BG13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BH13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BJ13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="BK13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BL13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BM13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="BN13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BO13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BP13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="BQ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BR13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BS13" s="11"/>
       <c r="BT13" s="11"/>
@@ -12430,64 +12435,64 @@
         <v>13</v>
       </c>
       <c r="DM13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DN13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DO13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DP13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DQ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DR13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="DS13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DT13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DU13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="DV13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DW13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DX13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="DY13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DZ13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EA13" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="EB13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EC13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="ED13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="EE13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EF13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EG13" s="11"/>
       <c r="EH13" s="11"/>
@@ -12496,22 +12501,22 @@
         <v>13</v>
       </c>
       <c r="EK13" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EL13" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="1"/>
       <c r="B14" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -12538,16 +12543,16 @@
         <v>11</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>11</v>
@@ -12556,118 +12561,118 @@
         <v>11</v>
       </c>
       <c r="AG14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AH14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AI14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AL14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AM14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AN14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AO14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AQ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AR14" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AU14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AX14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="AY14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="BB14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BD14" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BE14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BG14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="BH14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BI14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BJ14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BK14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BL14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BM14" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BN14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BO14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BP14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="BQ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BR14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BS14" s="15"/>
       <c r="BT14" s="15"/>
@@ -12676,73 +12681,73 @@
         <v>9</v>
       </c>
       <c r="BW14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BY14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="CC14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CD14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CE14" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CF14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CH14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="CI14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CJ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CK14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="CL14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CM14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CN14" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CO14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CP14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CQ14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="CR14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CS14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CT14" s="15"/>
       <c r="CU14" s="15"/>
@@ -12751,7 +12756,7 @@
         <v>8</v>
       </c>
       <c r="CX14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CY14" s="16" t="s">
         <v>8</v>
@@ -12766,10 +12771,10 @@
         <v>13</v>
       </c>
       <c r="DG14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DI14" s="15"/>
       <c r="DJ14" s="15"/>
@@ -12778,28 +12783,28 @@
         <v>8</v>
       </c>
       <c r="DM14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DN14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DO14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DP14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DQ14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DR14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="DS14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DT14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DU14" s="15"/>
       <c r="DV14" s="15"/>
@@ -12820,85 +12825,85 @@
         <v>8</v>
       </c>
       <c r="EK14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EL14" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
@@ -12925,22 +12930,22 @@
       <c r="AV15" s="15"/>
       <c r="AW15" s="15"/>
       <c r="AX15" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BA15" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BB15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BC15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BD15" s="15"/>
       <c r="BE15" s="15"/>
@@ -12958,16 +12963,16 @@
         <v>11</v>
       </c>
       <c r="BQ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BR15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BS15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BT15" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BU15" s="16" t="s">
         <v>11</v>
@@ -12976,37 +12981,37 @@
         <v>15</v>
       </c>
       <c r="BW15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BY15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB15" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CC15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CD15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CE15" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="CF15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CH15" s="15"/>
       <c r="CI15" s="15"/>
@@ -13024,136 +13029,136 @@
         <v>11</v>
       </c>
       <c r="CU15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CV15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CW15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CX15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CY15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CZ15" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="DA15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DB15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC15" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="DD15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="DG15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DI15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="DJ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DK15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DL15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="DM15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DN15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DO15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DP15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DQ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DR15" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DS15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DT15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DU15" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DV15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DW15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DX15" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="DY15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DZ15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EA15" s="16" t="s">
         <v>15</v>
       </c>
       <c r="EB15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EC15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="ED15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="EF15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="EG15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="EE15" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="EF15" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="EG15" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="EH15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EI15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EJ15" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="EK15" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EL15" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:142">
@@ -13225,40 +13230,40 @@
       <c r="BN16" s="20"/>
       <c r="BO16" s="20"/>
       <c r="BP16" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BQ16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BR16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BS16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BT16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BU16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BV16" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BW16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BX16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BY16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BZ16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CA16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB16" s="20"/>
       <c r="CC16" s="20"/>
@@ -13267,10 +13272,10 @@
         <v>15</v>
       </c>
       <c r="CF16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CH16" s="20"/>
       <c r="CI16" s="20"/>
@@ -13285,76 +13290,76 @@
       <c r="CR16" s="20"/>
       <c r="CS16" s="20"/>
       <c r="CT16" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CU16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CV16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CW16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CX16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CY16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CZ16" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="DA16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DB16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DC16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="DD16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DE16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DF16" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DG16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DH16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DI16" s="19" t="s">
         <v>6</v>
       </c>
       <c r="DJ16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DK16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DL16" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="DM16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DN16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DO16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DP16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DQ16" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="DR16" s="20"/>
       <c r="DS16" s="20"/>
@@ -13484,7 +13489,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="B22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>6</v>
@@ -13534,7 +13539,7 @@
         <v>8</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -13571,7 +13576,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="B25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -13596,16 +13601,16 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -13613,16 +13618,16 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Music.xlsx
+++ b/Excel Music.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21402"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234A0567-2A56-4259-AA57-FB42CBB9EE5E}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-680" yWindow="0" windowWidth="25360" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="6" r:id="rId1"/>
@@ -16,8 +15,11 @@
     <sheet name="Exercise 2 Solution" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="Christmas" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="234">
   <si>
     <t>Welcome to my music in Excel prototype 📊🎵. Here's how it works!</t>
   </si>
@@ -705,21 +707,6 @@
     <t>Right Hand</t>
   </si>
   <si>
-    <t>!turtle(B13, EL13, 1, 1)</t>
-  </si>
-  <si>
-    <t>!turtle(B8:B11, r m142, 1,1)</t>
-  </si>
-  <si>
-    <t>!turtle(B14,r m142, 1, 1)</t>
-  </si>
-  <si>
-    <t>!turtle(B15:B16,r m142, 1, 1)</t>
-  </si>
-  <si>
-    <t>s,G5</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -736,13 +723,22 @@
   </si>
   <si>
     <t>G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -,G5</t>
+  </si>
+  <si>
+    <t>!turtle(B13:B16, rm*, 1, 1)</t>
+  </si>
+  <si>
+    <t>!turtle(B8:B11, r m*, 1,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +789,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -937,9 +941,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -993,7 +998,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1053,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1105,7 +1111,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1299,21 +1305,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F03C6F-C8D8-494B-AFC6-46ACA29E7514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0" xr3:uid="{B78AD311-3778-5721-86A4-8184A4FC7F89}">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -3203,31 +3209,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130CC00D-DDCD-477C-9E1B-77F36A08060B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0" xr3:uid="{9017BC1D-BD7F-5FED-AF86-FB279A6496C3}">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="3.7109375" customWidth="1"/>
+    <col min="20" max="25" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="38" t="s">
         <v>141</v>
       </c>
@@ -4903,25 +4914,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672125CA-7AD2-4368-9BC9-51753DC4E351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{4BE764D4-38B5-570C-B973-31E03DE099C0}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.42578125" customWidth="1"/>
+    <col min="7" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
@@ -5303,32 +5319,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{A2244A1C-32D2-48A9-8879-0C20251EBEB1}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15585C32-A4C4-4C66-9C93-C0B2BAC5B884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{2A73514B-63D7-5113-A6A0-B81A19636E81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5806,54 +5826,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{FF766697-1CB6-4BCB-A586-2A0A9C37FD6B}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E7C1DB-29FE-4B83-8804-C2A766460DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{BA2D3206-DD76-55E9-B797-7C6577EED279}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -6389,33 +6414,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D74FA5F-3809-4670-AC21-9FF2E1BC79D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{8776BC61-746F-5351-9007-E328B7949851}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6911,144 +6941,148 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12DF2A-C80B-43FB-8B54-676DDFD39A82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" xr3:uid="{1A6C6700-72C2-5D87-85B4-28624D5879F1}">
-      <selection activeCell="A20" sqref="A20:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5" bestFit="1" customWidth="1"/>
     <col min="57" max="58" width="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="3.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.5" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="3.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="3.5" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="82" width="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="3.5" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="2" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="2" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="96" max="97" width="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="3.5" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="2" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="2" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="105" max="106" width="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="2" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="3.5" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="2" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="3.5" bestFit="1" customWidth="1"/>
     <col min="117" max="118" width="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="120" max="121" width="2" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="130" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="2" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="3.5" bestFit="1" customWidth="1"/>
     <col min="141" max="142" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7342,20 +7376,19 @@
       <c r="EK2" s="1"/>
       <c r="EL2" s="1"/>
     </row>
-    <row r="3" spans="1:142" ht="15.75">
+    <row r="3" spans="1:142" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="28" t="s">
         <v>223</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="28" t="s">
+        <v>224</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -7493,17 +7526,16 @@
     <row r="4" spans="1:142">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -7640,9 +7672,6 @@
     </row>
     <row r="5" spans="1:142">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7786,9 +7815,6 @@
     </row>
     <row r="6" spans="1:142">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8186,7 +8212,7 @@
         <v>199</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>199</v>
@@ -8287,10 +8313,10 @@
         <v>201</v>
       </c>
       <c r="DD8" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE8" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF8" s="8"/>
       <c r="DG8" s="8"/>
@@ -8320,7 +8346,7 @@
         <v>199</v>
       </c>
       <c r="EE8" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="EF8" s="9" t="s">
         <v>199</v>
@@ -8347,19 +8373,19 @@
         <v>201</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>77</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>125</v>
@@ -8387,7 +8413,7 @@
         <v>201</v>
       </c>
       <c r="AJ9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AK9" s="13" t="s">
         <v>201</v>
@@ -8399,55 +8425,55 @@
         <v>199</v>
       </c>
       <c r="AP9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AQ9" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AR9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="AS9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AT9" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AU9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="AV9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AW9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AX9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="AY9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ9" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BA9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="BB9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC9" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="BD9" s="13" t="s">
         <v>73</v>
       </c>
       <c r="BE9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BF9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
@@ -8456,7 +8482,7 @@
         <v>125</v>
       </c>
       <c r="BK9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BL9" s="13" t="s">
         <v>125</v>
@@ -8468,7 +8494,7 @@
         <v>125</v>
       </c>
       <c r="BO9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BP9" s="12"/>
       <c r="BQ9" s="12"/>
@@ -8480,28 +8506,28 @@
         <v>201</v>
       </c>
       <c r="BW9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX9" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BY9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="BZ9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA9" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="CB9" s="13" t="s">
         <v>199</v>
       </c>
       <c r="CC9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CD9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CE9" s="12"/>
       <c r="CF9" s="12"/>
@@ -8510,7 +8536,7 @@
         <v>125</v>
       </c>
       <c r="CI9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CJ9" s="13" t="s">
         <v>125</v>
@@ -8519,7 +8545,7 @@
         <v>199</v>
       </c>
       <c r="CL9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CM9" s="13" t="s">
         <v>125</v>
@@ -8531,10 +8557,10 @@
         <v>199</v>
       </c>
       <c r="CR9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CS9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CT9" s="12"/>
       <c r="CU9" s="12"/>
@@ -8549,16 +8575,16 @@
         <v>125</v>
       </c>
       <c r="DD9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF9" s="13" t="s">
         <v>199</v>
       </c>
       <c r="DG9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH9" s="13" t="s">
         <v>199</v>
@@ -8567,7 +8593,7 @@
         <v>125</v>
       </c>
       <c r="DJ9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DK9" s="13" t="s">
         <v>125</v>
@@ -8591,19 +8617,19 @@
         <v>201</v>
       </c>
       <c r="EB9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EC9" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="ED9" s="13" t="s">
         <v>77</v>
       </c>
       <c r="EE9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EF9" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EG9" s="13" t="s">
         <v>125</v>
@@ -8632,7 +8658,7 @@
         <v>77</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>77</v>
@@ -8641,19 +8667,19 @@
         <v>125</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>77</v>
@@ -8678,7 +8704,7 @@
         <v>77</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>77</v>
@@ -8687,34 +8713,34 @@
         <v>199</v>
       </c>
       <c r="AD10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF10" s="13" t="s">
         <v>201</v>
       </c>
       <c r="AG10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AH10" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AI10" s="13" t="s">
         <v>125</v>
       </c>
       <c r="AJ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AK10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AL10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="AM10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AN10" s="13" t="s">
         <v>77</v>
@@ -8723,61 +8749,61 @@
         <v>76</v>
       </c>
       <c r="AP10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AQ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AR10" s="13" t="s">
         <v>125</v>
       </c>
       <c r="AS10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AT10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AU10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AV10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AW10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AX10" s="13" t="s">
         <v>125</v>
       </c>
       <c r="AY10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BA10" s="13" t="s">
         <v>125</v>
       </c>
       <c r="BB10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BD10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="BE10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BF10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BG10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="BH10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BI10" s="13" t="s">
         <v>77</v>
@@ -8786,17 +8812,17 @@
         <v>77</v>
       </c>
       <c r="BK10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BL10" s="12"/>
       <c r="BM10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="BN10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BO10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BP10" s="12"/>
       <c r="BQ10" s="12"/>
@@ -8808,34 +8834,34 @@
         <v>77</v>
       </c>
       <c r="BW10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BY10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BZ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CB10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="CC10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CD10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CE10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="CF10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CG10" s="13" t="s">
         <v>77</v>
@@ -8844,25 +8870,25 @@
         <v>77</v>
       </c>
       <c r="CI10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CJ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CK10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="CL10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CM10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CN10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="CO10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CP10" s="13" t="s">
         <v>125</v>
@@ -8871,16 +8897,16 @@
         <v>77</v>
       </c>
       <c r="CR10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CS10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CT10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="CU10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CV10" s="13" t="s">
         <v>75</v>
@@ -8889,7 +8915,7 @@
         <v>76</v>
       </c>
       <c r="CX10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CY10" s="13" t="s">
         <v>76</v>
@@ -8898,37 +8924,37 @@
         <v>77</v>
       </c>
       <c r="DA10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DB10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DC10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="DD10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="DG10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DI10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="DJ10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DK10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DL10" s="12"/>
       <c r="DM10" s="12"/>
@@ -8952,7 +8978,7 @@
         <v>77</v>
       </c>
       <c r="DY10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DZ10" s="13" t="s">
         <v>77</v>
@@ -8961,19 +8987,19 @@
         <v>125</v>
       </c>
       <c r="EB10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EC10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="ED10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="EE10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EF10" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EG10" s="13" t="s">
         <v>77</v>
@@ -9003,10 +9029,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>74</v>
@@ -9015,65 +9041,65 @@
         <v>74</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>146</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="W11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Y11" s="17"/>
       <c r="Z11" s="16" t="s">
         <v>160</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AC11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="AD11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AE11" s="16" t="s">
         <v>75</v>
@@ -9085,79 +9111,79 @@
         <v>77</v>
       </c>
       <c r="AH11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AI11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="AJ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AK11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AL11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="AM11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AN11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AO11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="AP11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AQ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AR11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="AS11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AT11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AU11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AV11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AW11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AX11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="AY11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BA11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="BB11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BD11" s="16" t="s">
         <v>205</v>
       </c>
       <c r="BE11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BF11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BG11" s="16" t="s">
         <v>76</v>
@@ -9172,23 +9198,23 @@
         <v>74</v>
       </c>
       <c r="BK11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BL11" s="17"/>
       <c r="BM11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="BN11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BO11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BP11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="BQ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BR11" s="16" t="s">
         <v>125</v>
@@ -9197,7 +9223,7 @@
         <v>199</v>
       </c>
       <c r="BT11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BU11" s="16" t="s">
         <v>199</v>
@@ -9206,88 +9232,88 @@
         <v>74</v>
       </c>
       <c r="BW11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BY11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BZ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CB11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CC11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CD11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CE11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CF11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CG11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CH11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="CI11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CJ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CK11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CL11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CM11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CN11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CO11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CP11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CQ11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CR11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CS11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CT11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CU11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CV11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CW11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="CX11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CY11" s="16" t="s">
         <v>74</v>
@@ -9296,55 +9322,55 @@
         <v>74</v>
       </c>
       <c r="DA11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DB11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DC11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="DD11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF11" s="16" t="s">
         <v>75</v>
       </c>
       <c r="DG11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DI11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="DJ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DK11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DL11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="DM11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DN11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DO11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DP11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DQ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DR11" s="16" t="s">
         <v>75</v>
@@ -9359,10 +9385,10 @@
         <v>74</v>
       </c>
       <c r="DV11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DW11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DX11" s="16" t="s">
         <v>74</v>
@@ -9371,43 +9397,43 @@
         <v>74</v>
       </c>
       <c r="DZ11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EA11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="EB11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EC11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="ED11" s="16" t="s">
         <v>74</v>
       </c>
       <c r="EE11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EF11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EG11" s="16" t="s">
         <v>146</v>
       </c>
       <c r="EH11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EI11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EJ11" s="16" t="s">
         <v>77</v>
       </c>
       <c r="EK11" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EL11" s="25" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:142">
@@ -9560,46 +9586,46 @@
         <v>91</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>159</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -9617,25 +9643,25 @@
         <v>74</v>
       </c>
       <c r="X13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Z13" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AB13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AC13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AD13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AE13" s="9" t="s">
         <v>67</v>
@@ -9644,52 +9670,52 @@
         <v>73</v>
       </c>
       <c r="AG13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AH13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AJ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AK13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AL13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AM13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AN13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AO13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AP13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AQ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AR13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AS13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AT13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AU13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AW13" s="9" t="s">
         <v>205</v>
@@ -9698,64 +9724,64 @@
         <v>74</v>
       </c>
       <c r="AY13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BA13" s="9" t="s">
         <v>75</v>
       </c>
       <c r="BB13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BD13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="BE13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BF13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BG13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="BH13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BI13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BJ13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="BK13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BL13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BM13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="BN13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BO13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BP13" s="9" t="s">
         <v>74</v>
       </c>
       <c r="BQ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BR13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BS13" s="8"/>
       <c r="BT13" s="8"/>
@@ -9806,64 +9832,64 @@
         <v>74</v>
       </c>
       <c r="DM13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DN13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DO13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DP13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DQ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DR13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="DS13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DT13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DU13" s="9" t="s">
         <v>62</v>
       </c>
       <c r="DV13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DW13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DX13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="DY13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DZ13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EA13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="EB13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EC13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="ED13" s="9" t="s">
         <v>67</v>
       </c>
       <c r="EE13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EF13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EG13" s="8"/>
       <c r="EH13" s="8"/>
@@ -9872,22 +9898,22 @@
         <v>74</v>
       </c>
       <c r="EK13" s="22" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EL13" s="26" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:142">
       <c r="A14" s="1"/>
       <c r="B14" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -9914,16 +9940,16 @@
         <v>16</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AD14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>16</v>
@@ -9932,118 +9958,118 @@
         <v>16</v>
       </c>
       <c r="AG14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AH14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AI14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AJ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AK14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AL14" s="13" t="s">
         <v>173</v>
       </c>
       <c r="AM14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AN14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AO14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AP14" s="13" t="s">
         <v>173</v>
       </c>
       <c r="AQ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>194</v>
       </c>
       <c r="AS14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AT14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AU14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AV14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AW14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AX14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BA14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="BB14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BD14" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="BE14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BF14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BG14" s="13" t="s">
         <v>173</v>
       </c>
       <c r="BH14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BI14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BJ14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="BK14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BL14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BM14" s="13" t="s">
         <v>160</v>
       </c>
       <c r="BN14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BO14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BP14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="BQ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BR14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BS14" s="12"/>
       <c r="BT14" s="12"/>
@@ -10052,73 +10078,73 @@
         <v>62</v>
       </c>
       <c r="BW14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BY14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BZ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CB14" s="13" t="s">
         <v>67</v>
       </c>
       <c r="CC14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CD14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CE14" s="13" t="s">
         <v>76</v>
       </c>
       <c r="CF14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CG14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CH14" s="13" t="s">
         <v>62</v>
       </c>
       <c r="CI14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CJ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CK14" s="13" t="s">
         <v>62</v>
       </c>
       <c r="CL14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CM14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CN14" s="13" t="s">
         <v>73</v>
       </c>
       <c r="CO14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CP14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CQ14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="CR14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CS14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CT14" s="12"/>
       <c r="CU14" s="12"/>
@@ -10127,7 +10153,7 @@
         <v>67</v>
       </c>
       <c r="CX14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CY14" s="13" t="s">
         <v>67</v>
@@ -10142,10 +10168,10 @@
         <v>74</v>
       </c>
       <c r="DG14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DI14" s="12"/>
       <c r="DJ14" s="12"/>
@@ -10154,28 +10180,28 @@
         <v>67</v>
       </c>
       <c r="DM14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DN14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DO14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DP14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DQ14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DR14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="DS14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DT14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DU14" s="12"/>
       <c r="DV14" s="12"/>
@@ -10196,85 +10222,85 @@
         <v>67</v>
       </c>
       <c r="EK14" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EL14" s="27" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:142">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>210</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>220</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>209</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -10304,19 +10330,19 @@
         <v>91</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="AZ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BA15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="BB15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BC15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BD15" s="12"/>
       <c r="BE15" s="12"/>
@@ -10334,13 +10360,13 @@
         <v>16</v>
       </c>
       <c r="BQ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BR15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BS15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BT15" s="13" t="s">
         <v>160</v>
@@ -10352,37 +10378,37 @@
         <v>173</v>
       </c>
       <c r="BW15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BY15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BZ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CB15" s="13" t="s">
         <v>194</v>
       </c>
       <c r="CC15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CD15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CE15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="CF15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CG15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CH15" s="12"/>
       <c r="CI15" s="12"/>
@@ -10400,136 +10426,136 @@
         <v>16</v>
       </c>
       <c r="CU15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CV15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CW15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CX15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CY15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CZ15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="DA15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DB15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DC15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="DD15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="DG15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DI15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="DJ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DK15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DL15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="DM15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DN15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DO15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DP15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DQ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DR15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="DS15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DT15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DU15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="DV15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DW15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DX15" s="13" t="s">
         <v>194</v>
       </c>
       <c r="DY15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DZ15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EA15" s="13" t="s">
         <v>173</v>
       </c>
       <c r="EB15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EC15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="ED15" s="13" t="s">
         <v>159</v>
       </c>
       <c r="EE15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EF15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EG15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="EH15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EI15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EJ15" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="EK15" s="23" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="EL15" s="27" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:142">
@@ -10601,40 +10627,40 @@
       <c r="BN16" s="17"/>
       <c r="BO16" s="17"/>
       <c r="BP16" s="16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="BQ16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BR16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BS16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BT16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BU16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BV16" s="16" t="s">
         <v>159</v>
       </c>
       <c r="BW16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BX16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BY16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="BZ16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CA16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CB16" s="17"/>
       <c r="CC16" s="17"/>
@@ -10643,10 +10669,10 @@
         <v>173</v>
       </c>
       <c r="CF16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CG16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CH16" s="17"/>
       <c r="CI16" s="17"/>
@@ -10664,73 +10690,73 @@
         <v>91</v>
       </c>
       <c r="CU16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CV16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CW16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CX16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CY16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="CZ16" s="16" t="s">
         <v>194</v>
       </c>
       <c r="DA16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DB16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DC16" s="16" t="s">
         <v>173</v>
       </c>
       <c r="DD16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DE16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DF16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="DG16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DH16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DI16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="DJ16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DK16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DL16" s="16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="DM16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DN16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DO16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DP16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DQ16" s="24" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="DR16" s="17"/>
       <c r="DS16" s="17"/>
@@ -11188,5 +11214,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>